--- a/Demos/test_format.xlsx
+++ b/Demos/test_format.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>工程名称</t>
   </si>
@@ -103,6 +103,30 @@
       <t>3</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工程名称</t>
+  </si>
+  <si>
+    <t>new1</t>
+  </si>
+  <si>
+    <t>2020年中心2</t>
+  </si>
+  <si>
+    <t>2020年中心3</t>
+  </si>
+  <si>
+    <t>最高报价</t>
+  </si>
+  <si>
+    <t>下浮率</t>
+  </si>
+  <si>
+    <t>工资</t>
+  </si>
+  <si>
+    <t>P值下浮率</t>
   </si>
   <si>
     <t>工程名称</t>
@@ -378,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -521,6 +545,7 @@
       </bottom>
       <diagonal/>
     </border>
+    <border/>
     <border/>
     <border/>
     <border/>
@@ -534,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true" applyAlignment="true">
       <alignment horizontal="center"/>
@@ -573,6 +598,7 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -870,24 +896,24 @@
   <sheetData>
     <row r="1" s="1" customFormat="true" ht="15" thickTop="true" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" ht="15" x14ac:dyDescent="0.3">
       <c r="A2" s="15" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B2" s="16">
         <v>1538103.8499999999</v>
@@ -904,7 +930,7 @@
     </row>
     <row r="3" ht="15" x14ac:dyDescent="0.3">
       <c r="A3" s="9" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B3" s="3">
         <v>3106755.3699999996</v>
@@ -921,7 +947,7 @@
     </row>
     <row r="4" ht="15.6" thickBot="true" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B4" s="12">
         <v>2992051.2000000002</v>
